--- a/Code/Results/Cases/Case_4_232/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_232/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.85621800833826</v>
+        <v>0.3715095283235428</v>
       </c>
       <c r="C2">
-        <v>0.1005106486253595</v>
+        <v>0.02941557135680739</v>
       </c>
       <c r="D2">
-        <v>0.4279458138025092</v>
+        <v>0.6285659188583423</v>
       </c>
       <c r="E2">
-        <v>0.152715349760804</v>
+        <v>0.2468771440556594</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.4785489800020599</v>
+        <v>0.8779297582206596</v>
       </c>
       <c r="H2">
-        <v>0.3905891929149305</v>
+        <v>0.9421776594822688</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.0648387037162621</v>
+        <v>0.121412825833346</v>
       </c>
       <c r="K2">
-        <v>0.8611532373680859</v>
+        <v>0.3239916845480195</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.365297007831046</v>
+        <v>0.2849362235376702</v>
       </c>
       <c r="N2">
-        <v>0.8899396079223529</v>
+        <v>1.878773587644797</v>
       </c>
       <c r="O2">
-        <v>1.779354162800786</v>
+        <v>3.671517319374317</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7438663268820562</v>
+        <v>0.3394262375623214</v>
       </c>
       <c r="C3">
-        <v>0.08945365890880908</v>
+        <v>0.02591188334564265</v>
       </c>
       <c r="D3">
-        <v>0.3931782400327108</v>
+        <v>0.6229965012113752</v>
       </c>
       <c r="E3">
-        <v>0.1418164448010764</v>
+        <v>0.245470005254127</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.464801000401259</v>
+        <v>0.8805417676847966</v>
       </c>
       <c r="H3">
-        <v>0.3900435596986469</v>
+        <v>0.9472367143892626</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.06140388405287922</v>
+        <v>0.1212489028316561</v>
       </c>
       <c r="K3">
-        <v>0.7486044164402585</v>
+        <v>0.2910512733943733</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.3207907347571393</v>
+        <v>0.2738213232506226</v>
       </c>
       <c r="N3">
-        <v>0.9318680445943563</v>
+        <v>1.896954457759766</v>
       </c>
       <c r="O3">
-        <v>1.74869120545037</v>
+        <v>3.687370667653767</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6750667780114554</v>
+        <v>0.3198169061441547</v>
       </c>
       <c r="C4">
-        <v>0.08265427864471064</v>
+        <v>0.02374964885822806</v>
       </c>
       <c r="D4">
-        <v>0.3723071388176749</v>
+        <v>0.6198660070085111</v>
       </c>
       <c r="E4">
-        <v>0.1353083676564957</v>
+        <v>0.2447172885537618</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.4572645773583943</v>
+        <v>0.8826113016939914</v>
       </c>
       <c r="H4">
-        <v>0.3902667363099681</v>
+        <v>0.9506909768243972</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.05938169005801086</v>
+        <v>0.1212005379292656</v>
       </c>
       <c r="K4">
-        <v>0.6796021506726078</v>
+        <v>0.2708641822231499</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.2936769190814914</v>
+        <v>0.2671198289236756</v>
       </c>
       <c r="N4">
-        <v>0.9586947314590089</v>
+        <v>1.90868621691865</v>
       </c>
       <c r="O4">
-        <v>1.732940974000869</v>
+        <v>3.698810760536844</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6470670647727559</v>
+        <v>0.3118490420696958</v>
       </c>
       <c r="C5">
-        <v>0.07988015326793629</v>
+        <v>0.022865814405435</v>
       </c>
       <c r="D5">
-        <v>0.3639150620746818</v>
+        <v>0.6186631850301154</v>
       </c>
       <c r="E5">
-        <v>0.1327000705629935</v>
+        <v>0.244438584074846</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.4544106611345882</v>
+        <v>0.8835717987079121</v>
       </c>
       <c r="H5">
-        <v>0.3904935080622778</v>
+        <v>0.9521862194730915</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.0585784024464715</v>
+        <v>0.1211939933223967</v>
       </c>
       <c r="K5">
-        <v>0.6514998596185677</v>
+        <v>0.2626479240160364</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.2826761312899251</v>
+        <v>0.264420053808422</v>
       </c>
       <c r="N5">
-        <v>0.9698932446717361</v>
+        <v>1.913610017459161</v>
       </c>
       <c r="O5">
-        <v>1.727264986801259</v>
+        <v>3.703901959643574</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6424196707657757</v>
+        <v>0.3105273935356934</v>
       </c>
       <c r="C6">
-        <v>0.07941929094934608</v>
+        <v>0.02271889234300062</v>
       </c>
       <c r="D6">
-        <v>0.3625282028254304</v>
+        <v>0.6184678641365196</v>
       </c>
       <c r="E6">
-        <v>0.1322695407608592</v>
+        <v>0.2443940001455687</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.4539495987667053</v>
+        <v>0.8837383646321655</v>
       </c>
       <c r="H6">
-        <v>0.3905392381915149</v>
+        <v>0.9524397972992205</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.05844624192349457</v>
+        <v>0.1211937022023406</v>
       </c>
       <c r="K6">
-        <v>0.6468342429353839</v>
+        <v>0.2612842473579207</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.2808522268260063</v>
+        <v>0.2639736442918803</v>
       </c>
       <c r="N6">
-        <v>0.9717686766745324</v>
+        <v>1.914436249262504</v>
       </c>
       <c r="O6">
-        <v>1.726366440516685</v>
+        <v>3.704773283884577</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6746890282532547</v>
+        <v>0.3197093545823577</v>
       </c>
       <c r="C7">
-        <v>0.0826168801946352</v>
+        <v>0.02373774005117468</v>
       </c>
       <c r="D7">
-        <v>0.3721935111746433</v>
+        <v>0.6198494900160085</v>
       </c>
       <c r="E7">
-        <v>0.1352730170639731</v>
+        <v>0.244713416269235</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.4572252221334452</v>
+        <v>0.8826237809388644</v>
       </c>
       <c r="H7">
-        <v>0.3902692505216407</v>
+        <v>0.9507107873584175</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.05937077388784928</v>
+        <v>0.1212003963413011</v>
       </c>
       <c r="K7">
-        <v>0.6792230976267319</v>
+        <v>0.2707533331830945</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.2935283698124849</v>
+        <v>0.267083292490824</v>
       </c>
       <c r="N7">
-        <v>0.9588446872240937</v>
+        <v>1.908752041923715</v>
       </c>
       <c r="O7">
-        <v>1.732861460253829</v>
+        <v>3.698877683790769</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.8174346858647255</v>
+        <v>0.360428821778072</v>
       </c>
       <c r="C8">
-        <v>0.09669989387950295</v>
+        <v>0.02820980175256693</v>
       </c>
       <c r="D8">
-        <v>0.4158549451536544</v>
+        <v>0.6265856695733163</v>
       </c>
       <c r="E8">
-        <v>0.1489177296542046</v>
+        <v>0.2463688990811725</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.4736145114013937</v>
+        <v>0.87873372826067</v>
       </c>
       <c r="H8">
-        <v>0.3902824059445607</v>
+        <v>0.9438498572302905</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.06363571201090679</v>
+        <v>0.1213454634850102</v>
       </c>
       <c r="K8">
-        <v>0.8223192382144759</v>
+        <v>0.312626124723181</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.3499037051301457</v>
+        <v>0.2810783630069835</v>
       </c>
       <c r="N8">
-        <v>0.904168320158349</v>
+        <v>1.884924349793269</v>
       </c>
       <c r="O8">
-        <v>1.76812361263012</v>
+        <v>3.676629611429149</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.099306565759235</v>
+        <v>0.4409760891085739</v>
       </c>
       <c r="C9">
-        <v>0.1242707104936756</v>
+        <v>0.03689083427038042</v>
       </c>
       <c r="D9">
-        <v>0.5055770353826006</v>
+        <v>0.6420834288017829</v>
       </c>
       <c r="E9">
-        <v>0.1772514746053204</v>
+        <v>0.2504962757180067</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.5134243953074531</v>
+        <v>0.8748004184605378</v>
       </c>
       <c r="H9">
-        <v>0.3949532207809057</v>
+        <v>0.9331525213841871</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.07273843815788439</v>
+        <v>0.1220441856949961</v>
       </c>
       <c r="K9">
-        <v>1.104204193422561</v>
+        <v>0.395026814746501</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.4624050562518605</v>
+        <v>0.3094929338135657</v>
       </c>
       <c r="N9">
-        <v>0.8058071119710339</v>
+        <v>1.842708254159396</v>
       </c>
       <c r="O9">
-        <v>1.863179847764087</v>
+        <v>3.646528802708218</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.308313197719002</v>
+        <v>0.5005617745589745</v>
       </c>
       <c r="C10">
-        <v>0.1445547239158174</v>
+        <v>0.04321298795188966</v>
       </c>
       <c r="D10">
-        <v>0.5744758538268684</v>
+        <v>0.6548582539437291</v>
       </c>
       <c r="E10">
-        <v>0.1992034791158019</v>
+        <v>0.2540637895852598</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.5480710752980826</v>
+        <v>0.8741638404436713</v>
       </c>
       <c r="H10">
-        <v>0.4015344427035643</v>
+        <v>0.9269686298590614</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.07995161145402818</v>
+        <v>0.1228094688008952</v>
       </c>
       <c r="K10">
-        <v>1.312772276105449</v>
+        <v>0.4557256736563886</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.5466347852014124</v>
+        <v>0.3309543387618348</v>
       </c>
       <c r="N10">
-        <v>0.7393329861387041</v>
+        <v>1.814437825516063</v>
       </c>
       <c r="O10">
-        <v>1.951009054476771</v>
+        <v>3.6326512431813</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.403985103856826</v>
+        <v>0.5277540950734476</v>
       </c>
       <c r="C11">
-        <v>0.1538019856048578</v>
+        <v>0.04607664718434989</v>
       </c>
       <c r="D11">
-        <v>0.6065801883402173</v>
+        <v>0.660970167002688</v>
       </c>
       <c r="E11">
-        <v>0.2094777357456508</v>
+        <v>0.2558025712936427</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.5651757140335718</v>
+        <v>0.8743637284049015</v>
       </c>
       <c r="H11">
-        <v>0.405287568769765</v>
+        <v>0.9245181475594535</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.08336487959282124</v>
+        <v>0.1232122069944168</v>
       </c>
       <c r="K11">
-        <v>1.408139013121058</v>
+        <v>0.4833705110629865</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.585386994653625</v>
+        <v>0.3408435689167035</v>
       </c>
       <c r="N11">
-        <v>0.7104421599806701</v>
+        <v>1.802172311105992</v>
       </c>
       <c r="O11">
-        <v>1.995391334218283</v>
+        <v>3.628124977542711</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.440314012680147</v>
+        <v>0.5380631439409171</v>
       </c>
       <c r="C12">
-        <v>0.1573077344537239</v>
+        <v>0.04715922691782737</v>
       </c>
       <c r="D12">
-        <v>0.6188567939713607</v>
+        <v>0.6633276689531158</v>
       </c>
       <c r="E12">
-        <v>0.2134134022479586</v>
+        <v>0.2564776249779683</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.5718612044105384</v>
+        <v>0.8745098035458057</v>
       </c>
       <c r="H12">
-        <v>0.406824680542627</v>
+        <v>0.923642265651651</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.0846779405800433</v>
+        <v>0.1233725523191822</v>
       </c>
       <c r="K12">
-        <v>1.444336454970141</v>
+        <v>0.4938431757239243</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.6001321409567382</v>
+        <v>0.3446063742570757</v>
       </c>
       <c r="N12">
-        <v>0.6997042774249556</v>
+        <v>1.797613197584601</v>
       </c>
       <c r="O12">
-        <v>2.012880815467895</v>
+        <v>3.626667738718453</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.432485238764798</v>
+        <v>0.5358423846892038</v>
       </c>
       <c r="C13">
-        <v>0.1565525111362973</v>
+        <v>0.04692615607108053</v>
       </c>
       <c r="D13">
-        <v>0.6162073338614391</v>
+        <v>0.6628180266411903</v>
       </c>
       <c r="E13">
-        <v>0.212563723680681</v>
+        <v>0.2563315019671037</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.5704118472330322</v>
+        <v>0.8744752134534366</v>
       </c>
       <c r="H13">
-        <v>0.4064883705354703</v>
+        <v>0.9238285882488952</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.08439421041720152</v>
+        <v>0.1233376707708231</v>
       </c>
       <c r="K13">
-        <v>1.436536713796499</v>
+        <v>0.4915875231674818</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.5969532419924022</v>
+        <v>0.3437951907972021</v>
       </c>
       <c r="N13">
-        <v>0.7020077271124547</v>
+        <v>1.798591277933653</v>
       </c>
       <c r="O13">
-        <v>2.009083004851249</v>
+        <v>3.626970164360984</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.406971812619247</v>
+        <v>0.5286019911301025</v>
       </c>
       <c r="C14">
-        <v>0.1540903184094446</v>
+        <v>0.04616574857398348</v>
       </c>
       <c r="D14">
-        <v>0.6075877406827601</v>
+        <v>0.6611632582334437</v>
       </c>
       <c r="E14">
-        <v>0.2098006015491407</v>
+        <v>0.2558577756781659</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.565721467848519</v>
+        <v>0.8743743355570359</v>
       </c>
       <c r="H14">
-        <v>0.4054116654087352</v>
+        <v>0.924445045267305</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.08347248516816563</v>
+        <v>0.1232252417208386</v>
       </c>
       <c r="K14">
-        <v>1.41111522894613</v>
+        <v>0.484232023037066</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.5865986262264329</v>
+        <v>0.3411527781938872</v>
       </c>
       <c r="N14">
-        <v>0.7095546398198955</v>
+        <v>1.801795514934888</v>
       </c>
       <c r="O14">
-        <v>1.996816243577797</v>
+        <v>3.627999944732323</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.391357582225083</v>
+        <v>0.5241685759343113</v>
       </c>
       <c r="C15">
-        <v>0.1525827121306662</v>
+        <v>0.04569973763584301</v>
       </c>
       <c r="D15">
-        <v>0.6023238419865606</v>
+        <v>0.6601552665362931</v>
       </c>
       <c r="E15">
-        <v>0.2081140840879669</v>
+        <v>0.2555697668457881</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.5628760721068744</v>
+        <v>0.8743217106286636</v>
       </c>
       <c r="H15">
-        <v>0.4047674504838596</v>
+        <v>0.9248294207359464</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.08291062344805766</v>
+        <v>0.1231573958506331</v>
       </c>
       <c r="K15">
-        <v>1.395555222345564</v>
+        <v>0.4797270935611948</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.5802655525985969</v>
+        <v>0.3395365583370165</v>
       </c>
       <c r="N15">
-        <v>0.7142039685540604</v>
+        <v>1.803769347445872</v>
       </c>
       <c r="O15">
-        <v>1.989392848828942</v>
+        <v>3.628664147707354</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.302073990991005</v>
+        <v>0.4987863876047811</v>
       </c>
       <c r="C16">
-        <v>0.1439508907634632</v>
+        <v>0.04302558853527216</v>
       </c>
       <c r="D16">
-        <v>0.5723939172821986</v>
+        <v>0.6544648599825962</v>
       </c>
       <c r="E16">
-        <v>0.1985381325768358</v>
+        <v>0.2539524839307319</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.5469815548068766</v>
+        <v>0.8741606264146782</v>
       </c>
       <c r="H16">
-        <v>0.4013050085600014</v>
+        <v>0.92713606433243</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.07973133225629425</v>
+        <v>0.1227842464373765</v>
       </c>
       <c r="K16">
-        <v>1.306550826271263</v>
+        <v>0.4539196299762693</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.5441116651716627</v>
+        <v>0.3303105795102894</v>
       </c>
       <c r="N16">
-        <v>0.7412489226169945</v>
+        <v>1.81525137826051</v>
       </c>
       <c r="O16">
-        <v>1.94820154801684</v>
+        <v>3.632982984145656</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.247463582310189</v>
+        <v>0.4832370130318679</v>
       </c>
       <c r="C17">
-        <v>0.1386614440419578</v>
+        <v>0.04138189057425734</v>
       </c>
       <c r="D17">
-        <v>0.5542348150148655</v>
+        <v>0.6510508450184318</v>
       </c>
       <c r="E17">
-        <v>0.192739885693598</v>
+        <v>0.2529899816883656</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.537585378401829</v>
+        <v>0.8741871693305399</v>
       </c>
       <c r="H17">
-        <v>0.3993800137617853</v>
+        <v>0.9286439298882527</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.07781581183077435</v>
+        <v>0.1225693066454667</v>
       </c>
       <c r="K17">
-        <v>1.252084131101867</v>
+        <v>0.4380955679239094</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.5220494503350182</v>
+        <v>0.3246829559198616</v>
       </c>
       <c r="N17">
-        <v>0.7581914242766876</v>
+        <v>1.822447608763154</v>
       </c>
       <c r="O17">
-        <v>1.924098064731453</v>
+        <v>3.636089950170657</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.21610806926239</v>
+        <v>0.4743015969507383</v>
       </c>
       <c r="C18">
-        <v>0.1356208995200774</v>
+        <v>0.04043532258610583</v>
       </c>
       <c r="D18">
-        <v>0.5438612692723837</v>
+        <v>0.6491154962144776</v>
       </c>
       <c r="E18">
-        <v>0.1894317837675672</v>
+        <v>0.2524472881797664</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.5323064586379189</v>
+        <v>0.8742485076133164</v>
       </c>
       <c r="H18">
-        <v>0.398343849456495</v>
+        <v>0.9295453486821117</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.07672637669735849</v>
+        <v>0.1224508197549738</v>
       </c>
       <c r="K18">
-        <v>1.220801375842399</v>
+        <v>0.4289970879911209</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.5094003538662619</v>
+        <v>0.3214579982306276</v>
       </c>
       <c r="N18">
-        <v>0.7680626969019682</v>
+        <v>1.82664267775804</v>
       </c>
       <c r="O18">
-        <v>1.910648260121206</v>
+        <v>3.638045177974362</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.205500638796707</v>
+        <v>0.4712776384530741</v>
       </c>
       <c r="C19">
-        <v>0.1345917001697075</v>
+        <v>0.04011463397212367</v>
       </c>
       <c r="D19">
-        <v>0.5403608855781101</v>
+        <v>0.6484650864858281</v>
       </c>
       <c r="E19">
-        <v>0.1883162312496509</v>
+        <v>0.2522654172591388</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.5305402195276372</v>
+        <v>0.8742771886242906</v>
       </c>
       <c r="H19">
-        <v>0.3980050266050199</v>
+        <v>0.9298564186320135</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.07635958322816094</v>
+        <v>0.122411585532177</v>
       </c>
       <c r="K19">
-        <v>1.210216900464303</v>
+        <v>0.4259170478253225</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.505124312843364</v>
+        <v>0.3203681332559682</v>
       </c>
       <c r="N19">
-        <v>0.7714263976279723</v>
+        <v>1.82807267100704</v>
       </c>
       <c r="O19">
-        <v>1.906164116799857</v>
+        <v>3.638736075206452</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.253271163519486</v>
+        <v>0.4848914284744126</v>
       </c>
       <c r="C20">
-        <v>0.1392243198558134</v>
+        <v>0.04155698510564321</v>
       </c>
       <c r="D20">
-        <v>0.5561604558016597</v>
+        <v>0.6514113447882153</v>
       </c>
       <c r="E20">
-        <v>0.1933543100629791</v>
+        <v>0.2530913126853918</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.5385725210435339</v>
+        <v>0.874179575587263</v>
       </c>
       <c r="H20">
-        <v>0.3995775330801905</v>
+        <v>0.9284798828160632</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.07801843608494607</v>
+        <v>0.1225916554110782</v>
       </c>
       <c r="K20">
-        <v>1.2578774437047</v>
+        <v>0.4397797491062079</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.5243937632185478</v>
+        <v>0.3252807956181556</v>
       </c>
       <c r="N20">
-        <v>0.7563747247848744</v>
+        <v>1.821675763011221</v>
       </c>
       <c r="O20">
-        <v>1.926620762340576</v>
+        <v>3.635741803214103</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.414462887543607</v>
+        <v>0.5307283512997003</v>
       </c>
       <c r="C21">
-        <v>0.1548134056716748</v>
+        <v>0.04638914867460642</v>
       </c>
       <c r="D21">
-        <v>0.6101162023387587</v>
+        <v>0.6616481367348399</v>
       </c>
       <c r="E21">
-        <v>0.2106109456461382</v>
+        <v>0.2559964700649573</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.567093366365512</v>
+        <v>0.8744020557240617</v>
       </c>
       <c r="H21">
-        <v>0.4057247191097559</v>
+        <v>0.9242625645618716</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.08374264811103416</v>
+        <v>0.1232580522836173</v>
       </c>
       <c r="K21">
-        <v>1.418579735941961</v>
+        <v>0.4863924028929887</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.5896380483628931</v>
+        <v>0.3419284327445737</v>
       </c>
       <c r="N21">
-        <v>0.7073323636323936</v>
+        <v>1.800852030222049</v>
       </c>
       <c r="O21">
-        <v>2.000400373089263</v>
+        <v>3.627690506214236</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.520401623949283</v>
+        <v>0.5607545879947509</v>
       </c>
       <c r="C22">
-        <v>0.1650257541737261</v>
+        <v>0.04953657920719934</v>
       </c>
       <c r="D22">
-        <v>0.6460803416545957</v>
+        <v>0.6685893393439812</v>
       </c>
       <c r="E22">
-        <v>0.2221534560938068</v>
+        <v>0.2579919779529547</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.586955474470642</v>
+        <v>0.874957697163822</v>
       </c>
       <c r="H22">
-        <v>0.4104211623348846</v>
+        <v>0.9218097274013815</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.08760421747807356</v>
+        <v>0.1237392547242848</v>
       </c>
       <c r="K22">
-        <v>1.52410554219793</v>
+        <v>0.5168804972618943</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.6326940910590366</v>
+        <v>0.352913268217641</v>
       </c>
       <c r="N22">
-        <v>0.6764647154963903</v>
+        <v>1.787741304894492</v>
       </c>
       <c r="O22">
-        <v>2.052623576116645</v>
+        <v>3.62392503341556</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.463800971237845</v>
+        <v>0.5447228678466729</v>
       </c>
       <c r="C23">
-        <v>0.1595726359025775</v>
+        <v>0.04785773030256735</v>
       </c>
       <c r="D23">
-        <v>0.6268180477803753</v>
+        <v>0.6648617908069241</v>
       </c>
       <c r="E23">
-        <v>0.2159675682669828</v>
+        <v>0.2569180959659292</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.5762376122543742</v>
+        <v>0.8746236052860894</v>
       </c>
       <c r="H23">
-        <v>0.4078501300332533</v>
+        <v>0.923091115409008</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.08553166092340803</v>
+        <v>0.1234782538571082</v>
       </c>
       <c r="K23">
-        <v>1.467734033456622</v>
+        <v>0.5006064027297441</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.609673540163655</v>
+        <v>0.347040945385956</v>
       </c>
       <c r="N23">
-        <v>0.6928280289691777</v>
+        <v>1.794693095199436</v>
       </c>
       <c r="O23">
-        <v>2.024368664648591</v>
+        <v>3.625797860786662</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.250645430259596</v>
+        <v>0.4841434543598098</v>
       </c>
       <c r="C24">
-        <v>0.1389698424493133</v>
+        <v>0.04147782979781311</v>
       </c>
       <c r="D24">
-        <v>0.5552896676281591</v>
+        <v>0.6512482774391515</v>
       </c>
       <c r="E24">
-        <v>0.1930764499979034</v>
+        <v>0.2530454677276666</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.5381258516594727</v>
+        <v>0.8741828651868389</v>
       </c>
       <c r="H24">
-        <v>0.3994880153786085</v>
+        <v>0.9285539409410717</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.07792679294969673</v>
+        <v>0.1225815356946427</v>
       </c>
       <c r="K24">
-        <v>1.255258191955704</v>
+        <v>0.4390183339185683</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.5233337916684846</v>
+        <v>0.3250104797627813</v>
       </c>
       <c r="N24">
-        <v>0.7571956478420043</v>
+        <v>1.822024534244469</v>
       </c>
       <c r="O24">
-        <v>1.925478984589432</v>
+        <v>3.635898674039652</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.022771805363959</v>
+        <v>0.4191131085464121</v>
       </c>
       <c r="C25">
-        <v>0.1168114813778942</v>
+        <v>0.03455205817373042</v>
       </c>
       <c r="D25">
-        <v>0.4808179119623333</v>
+        <v>0.6376465625555738</v>
       </c>
       <c r="E25">
-        <v>0.1694003232107164</v>
+        <v>0.2492855961220108</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.5017616471888289</v>
+        <v>0.8754688365147985</v>
       </c>
       <c r="H25">
-        <v>0.3931607209134143</v>
+        <v>0.9357518316621309</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.07018933024293972</v>
+        <v>0.1218108773346387</v>
       </c>
       <c r="K25">
-        <v>1.027741844081049</v>
+        <v>0.3727061050395264</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.4317232896297156</v>
+        <v>0.3017028132535842</v>
       </c>
       <c r="N25">
-        <v>0.8314290906896549</v>
+        <v>1.853646393820312</v>
       </c>
       <c r="O25">
-        <v>1.834472207258784</v>
+        <v>3.653224609546868</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_232/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_232/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.3715095283235428</v>
+        <v>0.85621800833826</v>
       </c>
       <c r="C2">
-        <v>0.02941557135680739</v>
+        <v>0.1005106486251179</v>
       </c>
       <c r="D2">
-        <v>0.6285659188583423</v>
+        <v>0.4279458138024808</v>
       </c>
       <c r="E2">
-        <v>0.2468771440556594</v>
+        <v>0.1527153497607721</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.8779297582206596</v>
+        <v>0.4785489800019747</v>
       </c>
       <c r="H2">
-        <v>0.9421776594822688</v>
+        <v>0.3905891929149305</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.121412825833346</v>
+        <v>0.06483870371625144</v>
       </c>
       <c r="K2">
-        <v>0.3239916845480195</v>
+        <v>0.8611532373679438</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.2849362235376702</v>
+        <v>0.3652970078310744</v>
       </c>
       <c r="N2">
-        <v>1.878773587644797</v>
+        <v>0.8899396079223494</v>
       </c>
       <c r="O2">
-        <v>3.671517319374317</v>
+        <v>1.779354162800757</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.3394262375623214</v>
+        <v>0.7438663268821415</v>
       </c>
       <c r="C3">
-        <v>0.02591188334564265</v>
+        <v>0.0894536589088375</v>
       </c>
       <c r="D3">
-        <v>0.6229965012113752</v>
+        <v>0.3931782400327108</v>
       </c>
       <c r="E3">
-        <v>0.245470005254127</v>
+        <v>0.1418164448010657</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.8805417676847966</v>
+        <v>0.4648010004013088</v>
       </c>
       <c r="H3">
-        <v>0.9472367143892626</v>
+        <v>0.3900435596985261</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1212489028316561</v>
+        <v>0.06140388405293251</v>
       </c>
       <c r="K3">
-        <v>0.2910512733943733</v>
+        <v>0.7486044164402728</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.2738213232506226</v>
+        <v>0.3207907347571322</v>
       </c>
       <c r="N3">
-        <v>1.896954457759766</v>
+        <v>0.9318680445943444</v>
       </c>
       <c r="O3">
-        <v>3.687370667653767</v>
+        <v>1.748691205450342</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.3198169061441547</v>
+        <v>0.6750667780112565</v>
       </c>
       <c r="C4">
-        <v>0.02374964885822806</v>
+        <v>0.08265427864445485</v>
       </c>
       <c r="D4">
-        <v>0.6198660070085111</v>
+        <v>0.3723071388177175</v>
       </c>
       <c r="E4">
-        <v>0.2447172885537618</v>
+        <v>0.1353083676564992</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.8826113016939914</v>
+        <v>0.4572645773584014</v>
       </c>
       <c r="H4">
-        <v>0.9506909768243972</v>
+        <v>0.3902667363100889</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1212005379292656</v>
+        <v>0.05938169005794336</v>
       </c>
       <c r="K4">
-        <v>0.2708641822231499</v>
+        <v>0.6796021506726646</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.2671198289236756</v>
+        <v>0.2936769190814914</v>
       </c>
       <c r="N4">
-        <v>1.90868621691865</v>
+        <v>0.958694731458988</v>
       </c>
       <c r="O4">
-        <v>3.698810760536844</v>
+        <v>1.73294097400094</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.3118490420696958</v>
+        <v>0.6470670647726138</v>
       </c>
       <c r="C5">
-        <v>0.022865814405435</v>
+        <v>0.07988015326809261</v>
       </c>
       <c r="D5">
-        <v>0.6186631850301154</v>
+        <v>0.3639150620745539</v>
       </c>
       <c r="E5">
-        <v>0.244438584074846</v>
+        <v>0.1327000705629793</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.8835717987079121</v>
+        <v>0.454410661134645</v>
       </c>
       <c r="H5">
-        <v>0.9521862194730915</v>
+        <v>0.3904935080623915</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1211939933223967</v>
+        <v>0.05857840244645018</v>
       </c>
       <c r="K5">
-        <v>0.2626479240160364</v>
+        <v>0.6514998596186246</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.264420053808422</v>
+        <v>0.2826761312899109</v>
       </c>
       <c r="N5">
-        <v>1.913610017459161</v>
+        <v>0.9698932446717397</v>
       </c>
       <c r="O5">
-        <v>3.703901959643574</v>
+        <v>1.72726498680133</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.3105273935356934</v>
+        <v>0.6424196707657472</v>
       </c>
       <c r="C6">
-        <v>0.02271889234300062</v>
+        <v>0.07941929094934608</v>
       </c>
       <c r="D6">
-        <v>0.6184678641365196</v>
+        <v>0.3625282028253878</v>
       </c>
       <c r="E6">
-        <v>0.2443940001455687</v>
+        <v>0.1322695407608592</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.8837383646321655</v>
+        <v>0.4539495987666982</v>
       </c>
       <c r="H6">
-        <v>0.9524397972992205</v>
+        <v>0.3905392381916286</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1211937022023406</v>
+        <v>0.05844624192354431</v>
       </c>
       <c r="K6">
-        <v>0.2612842473579207</v>
+        <v>0.6468342429353271</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.2639736442918803</v>
+        <v>0.2808522268260276</v>
       </c>
       <c r="N6">
-        <v>1.914436249262504</v>
+        <v>0.9717686766745408</v>
       </c>
       <c r="O6">
-        <v>3.704773283884577</v>
+        <v>1.726366440516628</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.3197093545823577</v>
+        <v>0.674689028253141</v>
       </c>
       <c r="C7">
-        <v>0.02373774005117468</v>
+        <v>0.082616880194891</v>
       </c>
       <c r="D7">
-        <v>0.6198494900160085</v>
+        <v>0.3721935111745154</v>
       </c>
       <c r="E7">
-        <v>0.244713416269235</v>
+        <v>0.1352730170639695</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.8826237809388644</v>
+        <v>0.457225222133502</v>
       </c>
       <c r="H7">
-        <v>0.9507107873584175</v>
+        <v>0.3902692505216407</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1212003963413011</v>
+        <v>0.05937077388768941</v>
       </c>
       <c r="K7">
-        <v>0.2707533331830945</v>
+        <v>0.6792230976267604</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.267083292490824</v>
+        <v>0.2935283698124778</v>
       </c>
       <c r="N7">
-        <v>1.908752041923715</v>
+        <v>0.9588446872240892</v>
       </c>
       <c r="O7">
-        <v>3.698877683790769</v>
+        <v>1.732861460253815</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.360428821778072</v>
+        <v>0.8174346858645833</v>
       </c>
       <c r="C8">
-        <v>0.02820980175256693</v>
+        <v>0.09669989387973033</v>
       </c>
       <c r="D8">
-        <v>0.6265856695733163</v>
+        <v>0.4158549451535123</v>
       </c>
       <c r="E8">
-        <v>0.2463688990811725</v>
+        <v>0.1489177296542188</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.87873372826067</v>
+        <v>0.4736145114013937</v>
       </c>
       <c r="H8">
-        <v>0.9438498572302905</v>
+        <v>0.3902824059445607</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1213454634850102</v>
+        <v>0.06363571201100982</v>
       </c>
       <c r="K8">
-        <v>0.312626124723181</v>
+        <v>0.8223192382145896</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.2810783630069835</v>
+        <v>0.3499037051301528</v>
       </c>
       <c r="N8">
-        <v>1.884924349793269</v>
+        <v>0.9041683201583424</v>
       </c>
       <c r="O8">
-        <v>3.676629611429149</v>
+        <v>1.768123612630177</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.4409760891085739</v>
+        <v>1.099306565759264</v>
       </c>
       <c r="C9">
-        <v>0.03689083427038042</v>
+        <v>0.1242707104938177</v>
       </c>
       <c r="D9">
-        <v>0.6420834288017829</v>
+        <v>0.5055770353825721</v>
       </c>
       <c r="E9">
-        <v>0.2504962757180067</v>
+        <v>0.1772514746052707</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.8748004184605378</v>
+        <v>0.5134243953074673</v>
       </c>
       <c r="H9">
-        <v>0.9331525213841871</v>
+        <v>0.3949532207808062</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1220441856949961</v>
+        <v>0.07273843815801229</v>
       </c>
       <c r="K9">
-        <v>0.395026814746501</v>
+        <v>1.104204193422646</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.3094929338135657</v>
+        <v>0.4624050562518462</v>
       </c>
       <c r="N9">
-        <v>1.842708254159396</v>
+        <v>0.8058071119710357</v>
       </c>
       <c r="O9">
-        <v>3.646528802708218</v>
+        <v>1.863179847764144</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.5005617745589745</v>
+        <v>1.308313197719087</v>
       </c>
       <c r="C10">
-        <v>0.04321298795188966</v>
+        <v>0.1445547239154905</v>
       </c>
       <c r="D10">
-        <v>0.6548582539437291</v>
+        <v>0.5744758538269821</v>
       </c>
       <c r="E10">
-        <v>0.2540637895852598</v>
+        <v>0.1992034791158019</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.8741638404436713</v>
+        <v>0.5480710752980684</v>
       </c>
       <c r="H10">
-        <v>0.9269686298590614</v>
+        <v>0.4015344427035643</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1228094688008952</v>
+        <v>0.07995161145410634</v>
       </c>
       <c r="K10">
-        <v>0.4557256736563886</v>
+        <v>1.312772276105335</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.3309543387618348</v>
+        <v>0.5466347852014195</v>
       </c>
       <c r="N10">
-        <v>1.814437825516063</v>
+        <v>0.7393329861386913</v>
       </c>
       <c r="O10">
-        <v>3.6326512431813</v>
+        <v>1.951009054476714</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.5277540950734476</v>
+        <v>1.403985103856826</v>
       </c>
       <c r="C11">
-        <v>0.04607664718434989</v>
+        <v>0.1538019856048436</v>
       </c>
       <c r="D11">
-        <v>0.660970167002688</v>
+        <v>0.6065801883401036</v>
       </c>
       <c r="E11">
-        <v>0.2558025712936427</v>
+        <v>0.2094777357456508</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.8743637284049015</v>
+        <v>0.5651757140335576</v>
       </c>
       <c r="H11">
-        <v>0.9245181475594535</v>
+        <v>0.4052875687697366</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1232122069944168</v>
+        <v>0.08336487959287098</v>
       </c>
       <c r="K11">
-        <v>0.4833705110629865</v>
+        <v>1.40813901312103</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.3408435689167035</v>
+        <v>0.5853869946536392</v>
       </c>
       <c r="N11">
-        <v>1.802172311105992</v>
+        <v>0.7104421599806647</v>
       </c>
       <c r="O11">
-        <v>3.628124977542711</v>
+        <v>1.995391334218283</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.5380631439409171</v>
+        <v>1.440314012679977</v>
       </c>
       <c r="C12">
-        <v>0.04715922691782737</v>
+        <v>0.1573077344534681</v>
       </c>
       <c r="D12">
-        <v>0.6633276689531158</v>
+        <v>0.6188567939713039</v>
       </c>
       <c r="E12">
-        <v>0.2564776249779683</v>
+        <v>0.2134134022479444</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.8745098035458057</v>
+        <v>0.5718612044105384</v>
       </c>
       <c r="H12">
-        <v>0.923642265651651</v>
+        <v>0.4068246805425133</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1233725523191822</v>
+        <v>0.08467794057999356</v>
       </c>
       <c r="K12">
-        <v>0.4938431757239243</v>
+        <v>1.444336454970085</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.3446063742570757</v>
+        <v>0.6001321409567524</v>
       </c>
       <c r="N12">
-        <v>1.797613197584601</v>
+        <v>0.6997042774249431</v>
       </c>
       <c r="O12">
-        <v>3.626667738718453</v>
+        <v>2.01288081546781</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.5358423846892038</v>
+        <v>1.432485238764684</v>
       </c>
       <c r="C13">
-        <v>0.04692615607108053</v>
+        <v>0.1565525111362831</v>
       </c>
       <c r="D13">
-        <v>0.6628180266411903</v>
+        <v>0.6162073338614675</v>
       </c>
       <c r="E13">
-        <v>0.2563315019671037</v>
+        <v>0.2125637236806668</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.8744752134534366</v>
+        <v>0.5704118472329611</v>
       </c>
       <c r="H13">
-        <v>0.9238285882488952</v>
+        <v>0.4064883705354845</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1233376707708231</v>
+        <v>0.08439421041712336</v>
       </c>
       <c r="K13">
-        <v>0.4915875231674818</v>
+        <v>1.436536713796499</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.3437951907972021</v>
+        <v>0.5969532419924022</v>
       </c>
       <c r="N13">
-        <v>1.798591277933653</v>
+        <v>0.7020077271124645</v>
       </c>
       <c r="O13">
-        <v>3.626970164360984</v>
+        <v>2.009083004851334</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.5286019911301025</v>
+        <v>1.406971812619219</v>
       </c>
       <c r="C14">
-        <v>0.04616574857398348</v>
+        <v>0.1540903184094446</v>
       </c>
       <c r="D14">
-        <v>0.6611632582334437</v>
+        <v>0.6075877406827033</v>
       </c>
       <c r="E14">
-        <v>0.2558577756781659</v>
+        <v>0.2098006015491407</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.8743743355570359</v>
+        <v>0.565721467848519</v>
       </c>
       <c r="H14">
-        <v>0.924445045267305</v>
+        <v>0.4054116654087352</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.1232252417208386</v>
+        <v>0.08347248516813011</v>
       </c>
       <c r="K14">
-        <v>0.484232023037066</v>
+        <v>1.411115228946102</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.3411527781938872</v>
+        <v>0.5865986262264329</v>
       </c>
       <c r="N14">
-        <v>1.801795514934888</v>
+        <v>0.7095546398198298</v>
       </c>
       <c r="O14">
-        <v>3.627999944732323</v>
+        <v>1.996816243577769</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.5241685759343113</v>
+        <v>1.391357582225282</v>
       </c>
       <c r="C15">
-        <v>0.04569973763584301</v>
+        <v>0.1525827121307657</v>
       </c>
       <c r="D15">
-        <v>0.6601552665362931</v>
+        <v>0.6023238419865891</v>
       </c>
       <c r="E15">
-        <v>0.2555697668457881</v>
+        <v>0.2081140840879456</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.8743217106286636</v>
+        <v>0.5628760721068318</v>
       </c>
       <c r="H15">
-        <v>0.9248294207359464</v>
+        <v>0.4047674504838596</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.1231573958506331</v>
+        <v>0.08291062344799371</v>
       </c>
       <c r="K15">
-        <v>0.4797270935611948</v>
+        <v>1.395555222345592</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.3395365583370165</v>
+        <v>0.5802655525985756</v>
       </c>
       <c r="N15">
-        <v>1.803769347445872</v>
+        <v>0.7142039685540489</v>
       </c>
       <c r="O15">
-        <v>3.628664147707354</v>
+        <v>1.989392848828913</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.4987863876047811</v>
+        <v>1.302073990990976</v>
       </c>
       <c r="C16">
-        <v>0.04302558853527216</v>
+        <v>0.1439508907636764</v>
       </c>
       <c r="D16">
-        <v>0.6544648599825962</v>
+        <v>0.5723939172822554</v>
       </c>
       <c r="E16">
-        <v>0.2539524839307319</v>
+        <v>0.1985381325768074</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.8741606264146782</v>
+        <v>0.5469815548068908</v>
       </c>
       <c r="H16">
-        <v>0.92713606433243</v>
+        <v>0.4013050085600156</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.1227842464373765</v>
+        <v>0.0797313322563511</v>
       </c>
       <c r="K16">
-        <v>0.4539196299762693</v>
+        <v>1.306550826271319</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.3303105795102894</v>
+        <v>0.5441116651716484</v>
       </c>
       <c r="N16">
-        <v>1.81525137826051</v>
+        <v>0.7412489226170114</v>
       </c>
       <c r="O16">
-        <v>3.632982984145656</v>
+        <v>1.948201548016868</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.4832370130318679</v>
+        <v>1.247463582310218</v>
       </c>
       <c r="C17">
-        <v>0.04138189057425734</v>
+        <v>0.1386614440419578</v>
       </c>
       <c r="D17">
-        <v>0.6510508450184318</v>
+        <v>0.5542348150148655</v>
       </c>
       <c r="E17">
-        <v>0.2529899816883656</v>
+        <v>0.1927398856936193</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.8741871693305399</v>
+        <v>0.5375853784018858</v>
       </c>
       <c r="H17">
-        <v>0.9286439298882527</v>
+        <v>0.3993800137617711</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.1225693066454667</v>
+        <v>0.07781581183077435</v>
       </c>
       <c r="K17">
-        <v>0.4380955679239094</v>
+        <v>1.252084131102009</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.3246829559198616</v>
+        <v>0.522049450335011</v>
       </c>
       <c r="N17">
-        <v>1.822447608763154</v>
+        <v>0.7581914242766961</v>
       </c>
       <c r="O17">
-        <v>3.636089950170657</v>
+        <v>1.924098064731453</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.4743015969507383</v>
+        <v>1.216108069262475</v>
       </c>
       <c r="C18">
-        <v>0.04043532258610583</v>
+        <v>0.1356208995197505</v>
       </c>
       <c r="D18">
-        <v>0.6491154962144776</v>
+        <v>0.5438612692724973</v>
       </c>
       <c r="E18">
-        <v>0.2524472881797664</v>
+        <v>0.1894317837675388</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.8742485076133164</v>
+        <v>0.5323064586379047</v>
       </c>
       <c r="H18">
-        <v>0.9295453486821117</v>
+        <v>0.3983438494565092</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.1224508197549738</v>
+        <v>0.07672637669729454</v>
       </c>
       <c r="K18">
-        <v>0.4289970879911209</v>
+        <v>1.220801375842512</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.3214579982306276</v>
+        <v>0.5094003538662477</v>
       </c>
       <c r="N18">
-        <v>1.82664267775804</v>
+        <v>0.7680626969019708</v>
       </c>
       <c r="O18">
-        <v>3.638045177974362</v>
+        <v>1.910648260121263</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.4712776384530741</v>
+        <v>1.205500638796678</v>
       </c>
       <c r="C19">
-        <v>0.04011463397212367</v>
+        <v>0.1345917001698069</v>
       </c>
       <c r="D19">
-        <v>0.6484650864858281</v>
+        <v>0.5403608855780249</v>
       </c>
       <c r="E19">
-        <v>0.2522654172591388</v>
+        <v>0.1883162312496864</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.8742771886242906</v>
+        <v>0.5305402195276372</v>
       </c>
       <c r="H19">
-        <v>0.9298564186320135</v>
+        <v>0.3980050266051336</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.122411585532177</v>
+        <v>0.07635958322815384</v>
       </c>
       <c r="K19">
-        <v>0.4259170478253225</v>
+        <v>1.210216900464303</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.3203681332559682</v>
+        <v>0.5051243128433498</v>
       </c>
       <c r="N19">
-        <v>1.82807267100704</v>
+        <v>0.7714263976279119</v>
       </c>
       <c r="O19">
-        <v>3.638736075206452</v>
+        <v>1.906164116799829</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.4848914284744126</v>
+        <v>1.253271163519571</v>
       </c>
       <c r="C20">
-        <v>0.04155698510564321</v>
+        <v>0.1392243198553444</v>
       </c>
       <c r="D20">
-        <v>0.6514113447882153</v>
+        <v>0.556160455801546</v>
       </c>
       <c r="E20">
-        <v>0.2530913126853918</v>
+        <v>0.1933543100629862</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.874179575587263</v>
+        <v>0.5385725210435623</v>
       </c>
       <c r="H20">
-        <v>0.9284798828160632</v>
+        <v>0.3995775330801905</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.1225916554110782</v>
+        <v>0.07801843608487502</v>
       </c>
       <c r="K20">
-        <v>0.4397797491062079</v>
+        <v>1.2578774437047</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.3252807956181556</v>
+        <v>0.5243937632185407</v>
       </c>
       <c r="N20">
-        <v>1.821675763011221</v>
+        <v>0.7563747247848789</v>
       </c>
       <c r="O20">
-        <v>3.635741803214103</v>
+        <v>1.926620762340576</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.5307283512997003</v>
+        <v>1.414462887543522</v>
       </c>
       <c r="C21">
-        <v>0.04638914867460642</v>
+        <v>0.1548134056718595</v>
       </c>
       <c r="D21">
-        <v>0.6616481367348399</v>
+        <v>0.6101162023388724</v>
       </c>
       <c r="E21">
-        <v>0.2559964700649573</v>
+        <v>0.2106109456461382</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.8744020557240617</v>
+        <v>0.5670933663654836</v>
       </c>
       <c r="H21">
-        <v>0.9242625645618716</v>
+        <v>0.4057247191097559</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.1232580522836173</v>
+        <v>0.08374264811115495</v>
       </c>
       <c r="K21">
-        <v>0.4863924028929887</v>
+        <v>1.418579735941762</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.3419284327445737</v>
+        <v>0.589638048362886</v>
       </c>
       <c r="N21">
-        <v>1.800852030222049</v>
+        <v>0.7073323636324016</v>
       </c>
       <c r="O21">
-        <v>3.627690506214236</v>
+        <v>2.000400373089235</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.5607545879947509</v>
+        <v>1.520401623949255</v>
       </c>
       <c r="C22">
-        <v>0.04953657920719934</v>
+        <v>0.1650257541737403</v>
       </c>
       <c r="D22">
-        <v>0.6685893393439812</v>
+        <v>0.646080341654681</v>
       </c>
       <c r="E22">
-        <v>0.2579919779529547</v>
+        <v>0.2221534560937997</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.874957697163822</v>
+        <v>0.5869554744705709</v>
       </c>
       <c r="H22">
-        <v>0.9218097274013815</v>
+        <v>0.4104211623348846</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.1237392547242848</v>
+        <v>0.08760421747813751</v>
       </c>
       <c r="K22">
-        <v>0.5168804972618943</v>
+        <v>1.524105542197759</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.352913268217641</v>
+        <v>0.6326940910590366</v>
       </c>
       <c r="N22">
-        <v>1.787741304894492</v>
+        <v>0.6764647154964001</v>
       </c>
       <c r="O22">
-        <v>3.62392503341556</v>
+        <v>2.052623576116588</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.5447228678466729</v>
+        <v>1.463800971237987</v>
       </c>
       <c r="C23">
-        <v>0.04785773030256735</v>
+        <v>0.1595726359025775</v>
       </c>
       <c r="D23">
-        <v>0.6648617908069241</v>
+        <v>0.6268180477805458</v>
       </c>
       <c r="E23">
-        <v>0.2569180959659292</v>
+        <v>0.2159675682669828</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.8746236052860894</v>
+        <v>0.5762376122543174</v>
       </c>
       <c r="H23">
-        <v>0.923091115409008</v>
+        <v>0.4078501300332391</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.1234782538571082</v>
+        <v>0.08553166092339382</v>
       </c>
       <c r="K23">
-        <v>0.5006064027297441</v>
+        <v>1.46773403345685</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.347040945385956</v>
+        <v>0.6096735401636693</v>
       </c>
       <c r="N23">
-        <v>1.794693095199436</v>
+        <v>0.692828028969128</v>
       </c>
       <c r="O23">
-        <v>3.625797860786662</v>
+        <v>2.024368664648705</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.4841434543598098</v>
+        <v>1.250645430259624</v>
       </c>
       <c r="C24">
-        <v>0.04147782979781311</v>
+        <v>0.1389698424494128</v>
       </c>
       <c r="D24">
-        <v>0.6512482774391515</v>
+        <v>0.5552896676281875</v>
       </c>
       <c r="E24">
-        <v>0.2530454677276666</v>
+        <v>0.1930764499979176</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.8741828651868389</v>
+        <v>0.5381258516594585</v>
       </c>
       <c r="H24">
-        <v>0.9285539409410717</v>
+        <v>0.3994880153786085</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.1225815356946427</v>
+        <v>0.07792679294967542</v>
       </c>
       <c r="K24">
-        <v>0.4390183339185683</v>
+        <v>1.255258191955647</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.3250104797627813</v>
+        <v>0.5233337916684633</v>
       </c>
       <c r="N24">
-        <v>1.822024534244469</v>
+        <v>0.7571956478419524</v>
       </c>
       <c r="O24">
-        <v>3.635898674039652</v>
+        <v>1.925478984589375</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.4191131085464121</v>
+        <v>1.022771805363874</v>
       </c>
       <c r="C25">
-        <v>0.03455205817373042</v>
+        <v>0.1168114813777379</v>
       </c>
       <c r="D25">
-        <v>0.6376465625555738</v>
+        <v>0.4808179119623333</v>
       </c>
       <c r="E25">
-        <v>0.2492855961220108</v>
+        <v>0.1694003232107129</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.8754688365147985</v>
+        <v>0.5017616471887578</v>
       </c>
       <c r="H25">
-        <v>0.9357518316621309</v>
+        <v>0.3931607209135279</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1218108773346387</v>
+        <v>0.0701893302430534</v>
       </c>
       <c r="K25">
-        <v>0.3727061050395264</v>
+        <v>1.027741844081135</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.3017028132535842</v>
+        <v>0.4317232896297227</v>
       </c>
       <c r="N25">
-        <v>1.853646393820312</v>
+        <v>0.8314290906896469</v>
       </c>
       <c r="O25">
-        <v>3.653224609546868</v>
+        <v>1.834472207258727</v>
       </c>
     </row>
   </sheetData>
